--- a/template.xlsx
+++ b/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r-moc\Desktop\AI作成\経費精算\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r-moc\Desktop\AI作成\経費精算\ver2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF4B3F1-E127-42A4-9C8C-97DFD4231B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C3C980-1D41-4F59-B047-C3F3DFDA6E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF7C88A7-CE9F-4C60-ABDA-AB32F0823EB5}"/>
   </bookViews>
@@ -49,17 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>提出日</t>
-    <rPh sb="0" eb="2">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>支払日</t>
     <rPh sb="0" eb="3">
@@ -179,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +221,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -299,13 +297,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,14 +331,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="桁区切り" xfId="2" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 3" xfId="1" xr:uid="{6F133FDD-94FA-4481-8594-E06D63B7ADFC}"/>
   </cellStyles>
@@ -683,10 +688,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1296033-8976-4E6E-8203-680BDEDDF0DA}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -702,38 +707,47 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="10">
+        <f>SUM(F9:F29)</f>
+        <v>0</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="10">
+        <f>SUM(G9:G29)</f>
+        <v>0</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10">
+        <f>D4+D5</f>
+        <v>0</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -747,22 +761,22 @@
     </row>
     <row r="8" spans="2:8" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -773,7 +787,6 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
@@ -782,7 +795,6 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="4"/>
@@ -791,7 +803,6 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
@@ -800,7 +811,6 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="4"/>
@@ -809,7 +819,6 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
@@ -818,7 +827,6 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
@@ -827,7 +835,6 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
@@ -836,134 +843,116 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="2:8" ht="14.25" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="2:7" ht="14.25" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r-moc\Desktop\AI作成\経費精算\ver2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C3C980-1D41-4F59-B047-C3F3DFDA6E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648CBC97-7D71-4060-A493-B10E932597E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF7C88A7-CE9F-4C60-ABDA-AB32F0823EB5}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="A">#REF!</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>支払日</t>
     <rPh sb="0" eb="3">
@@ -154,22 +155,12 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>作成者</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +220,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -296,6 +295,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -306,14 +316,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -325,12 +332,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -338,6 +339,24 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -373,6 +392,1553 @@
 </styleSheet>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158751</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>74082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>872068</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>159807</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0606173-7A95-5681-38AB-42B27321B113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="306918" y="7895165"/>
+          <a:ext cx="5835650" cy="879475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>187324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB52357E-B6C8-2583-CA58-1BD0CA7E0B3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="910167" y="7450666"/>
+          <a:ext cx="4728633" cy="293158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>31312</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>5291</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>6569</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6421DA-66C0-53CF-61A7-0967940E6555}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>31313</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>282465</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4698F5D1-0617-C614-43A8-BEC7A357963F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>33027</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>5910</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>6569</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>244035</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210BA707-0227-82E0-1977-A0C542E9EE60}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>33027</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>8467</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>246592</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1B192E-C603-7993-9900-529C2D610280}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>42151</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>8467</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>275896</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>246592</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A5FC3D-AD34-C1B6-967A-F191F9D209B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>39961</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>5912</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>249620</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>244037</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{005D7D17-4A67-90FC-6BC6-DAF9AC458361}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>41056</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>8467</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>246592</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86BEF834-C080-835E-0E5F-B94655B2E5DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>48902</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>9488</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>6569</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>221155</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B59D46-5D7A-3155-71D5-6D92577EA101}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>5912</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>244037</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF89C56B-F1AD-0169-8C97-22D38BA6419D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>6277</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>275896</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>249147</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A93D9DE-5050-8F92-C8B9-1501B5B25422}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>46895</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>6277</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>249146</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F226FF43-AAFA-DA96-ABA9-8CB0F3327EF8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>8467</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>282465</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>246592</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57AFEF09-F451-254C-9311-E414AEBE3A6A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>46165</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>6278</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>19707</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>249147</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BADF797C-878E-CE63-75D9-EF217D05D0D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>44706</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>3357</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>269327</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>246226</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D24AA4-E083-BB49-7434-CF8680076975}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>46165</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>6278</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>13138</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>249147</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ECFB030-A23D-7515-19F4-B026DDF61A00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>45070</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>5912</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>275896</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>244037</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A208241-E83B-B7AE-3621-8F0B42FCBF7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>45070</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>8467</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>275896</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>246592</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA57558-3295-9930-B5E8-DAA4DFB42B0C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47990</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>5912</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>282466</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>244037</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F2E02D-1484-8A3C-33EE-10BB28396764}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>43611</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>3357</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>19707</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>246227</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9DF5AEF-4C7D-BD3B-17A7-B2865FB31428}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>43611</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>8466</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>246591</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0FD63B-B612-037D-4DAD-30C601B870CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -385,6 +1951,22 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="経費精算"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -686,12 +2268,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1296033-8976-4E6E-8203-680BDEDDF0DA}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:H37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1296033-8976-4E6E-8203-680BDEDDF0DA}">
+  <sheetPr codeName="Sheet2">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -700,270 +2284,706 @@
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="3.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="3" t="s">
+    <row r="3" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <f>SUM(F9:F29)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <f>SUM(G9:G29)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="9" t="s">
+    <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="10">
         <f>D4+D5</f>
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+    <row r="7" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:8" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="2:8" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7" ht="14.25" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="10.15" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.78740157480314965" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1036" r:id="rId4" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId5" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId6" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId7" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId8" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId9" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1042" r:id="rId10" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1043" r:id="rId11" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1044" r:id="rId12" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1045" r:id="rId13" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1046" r:id="rId14" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1047" r:id="rId15" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1048" r:id="rId16" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1049" r:id="rId17" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId18" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1051" r:id="rId19" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1052" r:id="rId20" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1053" r:id="rId21" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1054" r:id="rId22" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1055" r:id="rId23" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r-moc\Desktop\AI作成\経費精算\ver2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r-moc\Desktop\AI作成\経費精算\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE634E9-ED3F-467B-94EB-3ECDA7B57A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA60537-B299-4339-B9A7-BBA39F4DD567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF7C88A7-CE9F-4C60-ABDA-AB32F0823EB5}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{DF7C88A7-CE9F-4C60-ABDA-AB32F0823EB5}"/>
   </bookViews>
   <sheets>
     <sheet name="経費精算" sheetId="4" r:id="rId1"/>
@@ -48,8 +48,149 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>石崎真理子</author>
+  </authors>
+  <commentList>
+    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{34599FBF-B66E-4F2C-BE9A-EB7E97F95509}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>インボイス非対応は
+チェックを付けてください。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会長・社長</t>
+    <rPh sb="0" eb="2">
+      <t>カイチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シャチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>専務・常務</t>
+    <rPh sb="0" eb="2">
+      <t>センム</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当役員</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部門長</t>
+    <rPh sb="0" eb="3">
+      <t>ブモンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>課長</t>
+    <rPh sb="0" eb="2">
+      <t>カチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>係長</t>
+    <rPh sb="0" eb="2">
+      <t>カカリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>印</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>提出日</t>
+    <rPh sb="0" eb="2">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>～</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>証　第</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払額（10％）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払額（8％）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払事由（相手方・参加者）</t>
+    <rPh sb="0" eb="2">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サンカシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払先</t>
+    <phoneticPr fontId="2"/>
+  </si>
   <si>
     <t>支払日</t>
     <rPh sb="0" eb="3">
@@ -58,6 +199,33 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>支払額</t>
+    <rPh sb="0" eb="2">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>区間</t>
+    <rPh sb="0" eb="2">
+      <t>クカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払先</t>
+    <rPh sb="0" eb="2">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>円</t>
     <rPh sb="0" eb="1">
       <t>エン</t>
@@ -65,6 +233,35 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>ICカード交通費</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払総額</t>
+    <rPh sb="0" eb="2">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>号</t>
+    <rPh sb="0" eb="1">
+      <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>経 費 精 算 書</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>免税</t>
     <rPh sb="0" eb="2">
       <t>メンゼイ</t>
@@ -72,6 +269,35 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>経理（出納）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※3万円未満の公共交通機関（鉄道・バス）はインボイス交付義務免除</t>
+    <rPh sb="2" eb="4">
+      <t>マンエン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="7" eb="13">
+      <t>コウキョウコウツウキカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テツドウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウフ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ギム</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>メンジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>支払い総額(8%)</t>
     <rPh sb="0" eb="2">
       <t>シハラ</t>
@@ -88,69 +314,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ソウガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支払先</t>
-    <rPh sb="0" eb="3">
-      <t>シハライサキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支払事由（相手方・参加者）</t>
-    <rPh sb="0" eb="2">
-      <t>シハラ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジユウ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>アイテガタ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>サンカシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支払額(8%)</t>
-    <rPh sb="0" eb="3">
-      <t>シハライガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支払額(10%)</t>
-    <rPh sb="0" eb="3">
-      <t>シハライガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>総支払額</t>
-    <rPh sb="0" eb="4">
-      <t>ソウシハライガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>経 費 精 算 書</t>
-    <rPh sb="0" eb="1">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ザン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -159,7 +322,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,7 +357,53 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -205,38 +419,44 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -248,6 +468,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -288,6 +519,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -295,13 +546,127 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -311,52 +676,256 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -704,274 +1273,1065 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1296033-8976-4E6E-8203-680BDEDDF0DA}">
-  <sheetPr codeName="Sheet2">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:H29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1296033-8976-4E6E-8203-680BDEDDF0DA}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9:R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.25" style="32" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.625" style="34" customWidth="1"/>
+    <col min="4" max="17" width="3.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.875" style="1" customWidth="1"/>
+    <col min="20" max="22" width="3.625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="1.75" style="1" customWidth="1"/>
+    <col min="24" max="24" width="5.375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="1.625" style="1" customWidth="1"/>
+    <col min="26" max="27" width="12.625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="6.625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15.625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="12" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="9" t="s">
+    <row r="1" spans="1:31" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B1" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="38"/>
+    </row>
+    <row r="2" spans="1:31" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="1:31" ht="22.5" customHeight="1">
+      <c r="H3" s="26"/>
+      <c r="I3" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="25"/>
+      <c r="X3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="16"/>
+    </row>
+    <row r="4" spans="1:31" ht="7.5" customHeight="1">
+      <c r="X4" s="17"/>
+      <c r="Y4" s="16"/>
+    </row>
+    <row r="5" spans="1:31" ht="24.75" customHeight="1">
+      <c r="D5" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47">
+        <f>SUM(P9:R29)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="77">
+        <f>G5+G6</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="24.75" customHeight="1">
+      <c r="D6" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47">
+        <f>SUM(S9:V29)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="56"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB6" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="21" customHeight="1">
+      <c r="B7" s="22"/>
+      <c r="C7" s="35"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="2" t="s">
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="31"/>
+    </row>
+    <row r="8" spans="1:31" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="31"/>
+    </row>
+    <row r="9" spans="1:31" ht="21" customHeight="1">
+      <c r="B9" s="70"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="69"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="31"/>
+    </row>
+    <row r="10" spans="1:31" ht="21" customHeight="1">
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="69"/>
+      <c r="X10" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="31"/>
+    </row>
+    <row r="11" spans="1:31" ht="21" customHeight="1">
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="69"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="31"/>
+    </row>
+    <row r="12" spans="1:31" ht="21" customHeight="1">
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="69"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="31"/>
+    </row>
+    <row r="13" spans="1:31" ht="21" customHeight="1">
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="69"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="31"/>
+    </row>
+    <row r="14" spans="1:31" ht="21" customHeight="1">
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="69"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="31"/>
+    </row>
+    <row r="15" spans="1:31" ht="21" customHeight="1">
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="69"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="31"/>
+    </row>
+    <row r="16" spans="1:31" ht="21" customHeight="1">
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="69"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="31"/>
+    </row>
+    <row r="17" spans="2:28" ht="21" customHeight="1">
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="69"/>
+      <c r="Z17" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="21" customHeight="1">
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="69"/>
+    </row>
+    <row r="19" spans="2:28" ht="21" customHeight="1">
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="69"/>
+    </row>
+    <row r="20" spans="2:28" ht="21" customHeight="1">
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="69"/>
+    </row>
+    <row r="21" spans="2:28" ht="21" customHeight="1">
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="69"/>
+    </row>
+    <row r="22" spans="2:28" ht="21" customHeight="1">
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="69"/>
+    </row>
+    <row r="23" spans="2:28" ht="21" customHeight="1">
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="69"/>
+    </row>
+    <row r="24" spans="2:28" ht="21" customHeight="1">
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="69"/>
+    </row>
+    <row r="25" spans="2:28" ht="21" customHeight="1">
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="69"/>
+    </row>
+    <row r="26" spans="2:28" ht="21" customHeight="1">
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="69"/>
+    </row>
+    <row r="27" spans="2:28" ht="21" customHeight="1">
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="69"/>
+    </row>
+    <row r="28" spans="2:28" ht="21" customHeight="1">
+      <c r="B28" s="70"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="69"/>
+    </row>
+    <row r="29" spans="2:28" ht="21" customHeight="1">
+      <c r="B29" s="70"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="69"/>
+    </row>
+    <row r="30" spans="2:28" ht="14.25"/>
+    <row r="31" spans="2:28" ht="22.5" customHeight="1">
+      <c r="D31" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="75"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="75"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB31" s="11"/>
+    </row>
+    <row r="32" spans="2:28" ht="13.5" customHeight="1"/>
+    <row r="33" spans="2:22" ht="17.25" customHeight="1">
+      <c r="B33" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="75"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="75"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
-        <f>SUM(F9:F29)</f>
+      <c r="L33" s="75"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="R33" s="75"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" s="75"/>
+      <c r="V33" s="76"/>
+    </row>
+    <row r="34" spans="2:22" ht="17.25" customHeight="1">
+      <c r="B34" s="9"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="7"/>
+    </row>
+    <row r="35" spans="2:22" ht="17.25" customHeight="1">
+      <c r="B35" s="6"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="6"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="6"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="S35" s="5"/>
+      <c r="V35" s="5"/>
+    </row>
+    <row r="36" spans="2:22" ht="17.25" customHeight="1">
+      <c r="B36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <f>SUM(G9:G29)</f>
+      <c r="C36" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="10">
-        <f>D4+D5</f>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="8" t="s">
+      <c r="F36" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
+      <c r="G36" s="2"/>
+      <c r="H36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2"/>
+      <c r="T36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="2:22" ht="10.15" customHeight="1"/>
   </sheetData>
+  <mergeCells count="133">
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="O5:S6"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:S31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:N28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:N27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:J6"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.19685039370078741"/>
+  <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.78740157480314965" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r-moc\Desktop\AI作成\経費精算\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r-moc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA60537-B299-4339-B9A7-BBA39F4DD567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDFD2AA4-B555-4E62-97BD-A6DF4DFC6C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{DF7C88A7-CE9F-4C60-ABDA-AB32F0823EB5}"/>
+    <workbookView xWindow="8550" yWindow="1455" windowWidth="12600" windowHeight="11295" xr2:uid="{DF7C88A7-CE9F-4C60-ABDA-AB32F0823EB5}"/>
   </bookViews>
   <sheets>
     <sheet name="経費精算" sheetId="4" r:id="rId1"/>
@@ -70,12 +70,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="O40" authorId="0" shapeId="0" xr:uid="{B4C6A08B-6AC0-434F-8973-A8B49C1832FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>インボイス非対応は
+チェックを付けてください。</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>/</t>
     <phoneticPr fontId="2"/>
@@ -680,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,6 +811,102 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -822,12 +934,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -869,42 +975,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1275,10 +1345,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1296033-8976-4E6E-8203-680BDEDDF0DA}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AE74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9:R9"/>
+      <selection activeCell="H51" sqref="H51:N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -1303,31 +1373,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="38"/>
+      <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:31" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:31" ht="22.5" customHeight="1">
       <c r="H3" s="26"/>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
       <c r="Q3" s="25"/>
       <c r="X3" s="24" t="s">
         <v>23</v>
@@ -1339,35 +1409,35 @@
       <c r="Y4" s="16"/>
     </row>
     <row r="5" spans="1:31" ht="24.75" customHeight="1">
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47">
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="53">
         <f>SUM(P9:R29)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
       <c r="K5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="77">
+      <c r="M5" s="80"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="95">
         <f>G5+G6</f>
         <v>0</v>
       </c>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="55" t="s">
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="85" t="s">
         <v>20</v>
       </c>
       <c r="X5" s="17"/>
@@ -1377,30 +1447,30 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="24.75" customHeight="1">
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47">
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="53">
         <f>SUM(S9:V29)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
       <c r="K6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="56"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="86"/>
       <c r="X6" s="17"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="21" t="s">
@@ -1409,11 +1479,11 @@
       <c r="AA6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AB6" s="57" t="s">
+      <c r="AB6" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="59"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="89"/>
       <c r="AE6" s="21" t="s">
         <v>17</v>
       </c>
@@ -1434,39 +1504,39 @@
     </row>
     <row r="8" spans="1:31" s="18" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="33"/>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60" t="s">
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
       <c r="O8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="60" t="s">
+      <c r="P8" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60" t="s">
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="27"/>
@@ -1479,27 +1549,27 @@
       <c r="AE8" s="31"/>
     </row>
     <row r="9" spans="1:31" ht="21" customHeight="1">
-      <c r="B9" s="70"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="65"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="49"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="69"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="55"/>
       <c r="X9" s="17"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="27"/>
@@ -1512,28 +1582,28 @@
       <c r="AE9" s="31"/>
     </row>
     <row r="10" spans="1:31" ht="21" customHeight="1">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="49"/>
       <c r="O10" s="28"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="69"/>
-      <c r="X10" s="61" t="s">
+      <c r="P10" s="59"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="55"/>
+      <c r="X10" s="91" t="s">
         <v>11</v>
       </c>
       <c r="Y10" s="16"/>
@@ -1547,28 +1617,28 @@
       <c r="AE10" s="31"/>
     </row>
     <row r="11" spans="1:31" ht="21" customHeight="1">
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="65"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
       <c r="O11" s="28"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="69"/>
-      <c r="X11" s="62"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="55"/>
+      <c r="X11" s="92"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="27"/>
       <c r="AA11" s="14"/>
@@ -1580,27 +1650,27 @@
       <c r="AE11" s="31"/>
     </row>
     <row r="12" spans="1:31" ht="21" customHeight="1">
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="65"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49"/>
       <c r="O12" s="28"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="69"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="55"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="27"/>
@@ -1613,27 +1683,27 @@
       <c r="AE12" s="31"/>
     </row>
     <row r="13" spans="1:31" ht="21" customHeight="1">
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="49"/>
       <c r="O13" s="28"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="69"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="55"/>
       <c r="Z13" s="27"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="13"/>
@@ -1644,27 +1714,27 @@
       <c r="AE13" s="31"/>
     </row>
     <row r="14" spans="1:31" ht="21" customHeight="1">
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="65"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="49"/>
       <c r="O14" s="28"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="69"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="55"/>
       <c r="Z14" s="27"/>
       <c r="AA14" s="14"/>
       <c r="AB14" s="13"/>
@@ -1675,27 +1745,27 @@
       <c r="AE14" s="31"/>
     </row>
     <row r="15" spans="1:31" ht="21" customHeight="1">
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="65"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="49"/>
       <c r="O15" s="28"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="69"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="55"/>
       <c r="Z15" s="27"/>
       <c r="AA15" s="14"/>
       <c r="AB15" s="13"/>
@@ -1706,27 +1776,27 @@
       <c r="AE15" s="31"/>
     </row>
     <row r="16" spans="1:31" ht="21" customHeight="1">
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="65"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="49"/>
       <c r="O16" s="28"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="69"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="55"/>
       <c r="Z16" s="27"/>
       <c r="AA16" s="14"/>
       <c r="AB16" s="13"/>
@@ -1737,373 +1807,373 @@
       <c r="AE16" s="31"/>
     </row>
     <row r="17" spans="2:28" ht="21" customHeight="1">
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="65"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="49"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="69"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="55"/>
       <c r="Z17" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:28" ht="21" customHeight="1">
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="65"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="49"/>
       <c r="O18" s="28"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="69"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="55"/>
     </row>
     <row r="19" spans="2:28" ht="21" customHeight="1">
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="65"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="49"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="69"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="55"/>
     </row>
     <row r="20" spans="2:28" ht="21" customHeight="1">
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="65"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="49"/>
       <c r="O20" s="28"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="69"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="55"/>
     </row>
     <row r="21" spans="2:28" ht="21" customHeight="1">
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="65"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
       <c r="O21" s="28"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="69"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="55"/>
     </row>
     <row r="22" spans="2:28" ht="21" customHeight="1">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="65"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="49"/>
       <c r="O22" s="28"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="69"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="55"/>
     </row>
     <row r="23" spans="2:28" ht="21" customHeight="1">
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="65"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="49"/>
       <c r="O23" s="28"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="69"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="55"/>
     </row>
     <row r="24" spans="2:28" ht="21" customHeight="1">
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="65"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="49"/>
       <c r="O24" s="28"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="69"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="55"/>
     </row>
     <row r="25" spans="2:28" ht="21" customHeight="1">
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="65"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="49"/>
       <c r="O25" s="28"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="69"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="55"/>
     </row>
     <row r="26" spans="2:28" ht="21" customHeight="1">
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="65"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="49"/>
       <c r="O26" s="28"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="69"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="55"/>
     </row>
     <row r="27" spans="2:28" ht="21" customHeight="1">
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="65"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="49"/>
       <c r="O27" s="28"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="69"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="55"/>
     </row>
     <row r="28" spans="2:28" ht="21" customHeight="1">
-      <c r="B28" s="70"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="65"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="49"/>
       <c r="O28" s="28"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="69"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="55"/>
     </row>
     <row r="29" spans="2:28" ht="21" customHeight="1">
-      <c r="B29" s="70"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="65"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="49"/>
       <c r="O29" s="28"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="68"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="69"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="55"/>
     </row>
     <row r="30" spans="2:28" ht="14.25"/>
     <row r="31" spans="2:28" ht="22.5" customHeight="1">
-      <c r="D31" s="81" t="s">
+      <c r="D31" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="75"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="81" t="s">
+      <c r="E31" s="93"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="L31" s="75"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
       <c r="T31" s="12" t="s">
         <v>7</v>
       </c>
       <c r="AB31" s="11"/>
     </row>
     <row r="32" spans="2:28" ht="13.5" customHeight="1"/>
-    <row r="33" spans="2:22" ht="17.25" customHeight="1">
-      <c r="B33" s="81" t="s">
+    <row r="33" spans="1:31" ht="17.25" customHeight="1">
+      <c r="B33" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="81" t="s">
+      <c r="C33" s="93"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="81" t="s">
+      <c r="F33" s="93"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="75"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="81" t="s">
+      <c r="I33" s="93"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="75"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="81" t="s">
+      <c r="L33" s="93"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="81" t="s">
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R33" s="75"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="75" t="s">
+      <c r="R33" s="93"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="U33" s="75"/>
-      <c r="V33" s="76"/>
-    </row>
-    <row r="34" spans="2:22" ht="17.25" customHeight="1">
+      <c r="U33" s="93"/>
+      <c r="V33" s="94"/>
+    </row>
+    <row r="34" spans="1:31" ht="17.25" customHeight="1">
       <c r="B34" s="9"/>
       <c r="C34" s="36"/>
       <c r="D34" s="7"/>
@@ -2126,7 +2196,7 @@
       <c r="U34" s="8"/>
       <c r="V34" s="7"/>
     </row>
-    <row r="35" spans="2:22" ht="17.25" customHeight="1">
+    <row r="35" spans="1:31" ht="17.25" customHeight="1">
       <c r="B35" s="6"/>
       <c r="D35" s="5"/>
       <c r="E35" s="6"/>
@@ -2140,7 +2210,7 @@
       <c r="S35" s="5"/>
       <c r="V35" s="5"/>
     </row>
-    <row r="36" spans="2:22" ht="17.25" customHeight="1">
+    <row r="36" spans="1:31" ht="17.25" customHeight="1">
       <c r="B36" s="4" t="s">
         <v>0</v>
       </c>
@@ -2191,9 +2261,858 @@
       </c>
       <c r="V36" s="2"/>
     </row>
-    <row r="37" spans="2:22" ht="10.15" customHeight="1"/>
+    <row r="37" spans="1:31" ht="10.15" customHeight="1"/>
+    <row r="39" spans="1:31" ht="21" customHeight="1">
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="67"/>
+      <c r="R39" s="67"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="38"/>
+      <c r="AC39" s="23"/>
+      <c r="AE39" s="39"/>
+    </row>
+    <row r="40" spans="1:31" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="A40" s="33"/>
+      <c r="B40" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q40" s="69"/>
+      <c r="R40" s="69"/>
+      <c r="S40" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="T40" s="69"/>
+      <c r="U40" s="69"/>
+      <c r="V40" s="69"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="39"/>
+    </row>
+    <row r="41" spans="1:31" ht="21" customHeight="1">
+      <c r="B41" s="56"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="55"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="38"/>
+      <c r="AC41" s="23"/>
+      <c r="AE41" s="39"/>
+    </row>
+    <row r="42" spans="1:31" ht="21" customHeight="1">
+      <c r="B42" s="56"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="55"/>
+      <c r="X42" s="62"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="38"/>
+      <c r="AC42" s="23"/>
+      <c r="AE42" s="39"/>
+    </row>
+    <row r="43" spans="1:31" ht="21" customHeight="1">
+      <c r="B43" s="56"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
+      <c r="V43" s="55"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="38"/>
+      <c r="AC43" s="23"/>
+      <c r="AE43" s="39"/>
+    </row>
+    <row r="44" spans="1:31" ht="21" customHeight="1">
+      <c r="B44" s="56"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="51"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="55"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="38"/>
+      <c r="AC44" s="23"/>
+      <c r="AE44" s="39"/>
+    </row>
+    <row r="45" spans="1:31" ht="21" customHeight="1">
+      <c r="B45" s="56"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="55"/>
+      <c r="Z45" s="38"/>
+      <c r="AC45" s="23"/>
+      <c r="AE45" s="39"/>
+    </row>
+    <row r="46" spans="1:31" ht="21" customHeight="1">
+      <c r="B46" s="56"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="53"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="55"/>
+      <c r="Z46" s="38"/>
+      <c r="AC46" s="23"/>
+      <c r="AE46" s="39"/>
+    </row>
+    <row r="47" spans="1:31" ht="21" customHeight="1">
+      <c r="B47" s="56"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="59"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="54"/>
+      <c r="V47" s="55"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="38"/>
+      <c r="AC47" s="23"/>
+      <c r="AE47" s="39"/>
+    </row>
+    <row r="48" spans="1:31" ht="21" customHeight="1">
+      <c r="B48" s="56"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="55"/>
+      <c r="X48" s="62"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="38"/>
+      <c r="AC48" s="23"/>
+      <c r="AE48" s="39"/>
+    </row>
+    <row r="49" spans="2:26" ht="21" customHeight="1">
+      <c r="B49" s="56"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="55"/>
+      <c r="X49" s="63"/>
+      <c r="Z49" s="30"/>
+    </row>
+    <row r="50" spans="2:26" ht="21" customHeight="1">
+      <c r="B50" s="56"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="61"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="54"/>
+      <c r="U50" s="54"/>
+      <c r="V50" s="55"/>
+    </row>
+    <row r="51" spans="2:26" ht="21" customHeight="1">
+      <c r="B51" s="56"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="53"/>
+      <c r="T51" s="54"/>
+      <c r="U51" s="54"/>
+      <c r="V51" s="55"/>
+    </row>
+    <row r="52" spans="2:26" ht="21" customHeight="1">
+      <c r="B52" s="56"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="53"/>
+      <c r="T52" s="54"/>
+      <c r="U52" s="54"/>
+      <c r="V52" s="55"/>
+    </row>
+    <row r="53" spans="2:26" ht="21" customHeight="1">
+      <c r="B53" s="41"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="53"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="55"/>
+    </row>
+    <row r="54" spans="2:26" ht="21" customHeight="1">
+      <c r="B54" s="41"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="50"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="53"/>
+      <c r="T54" s="54"/>
+      <c r="U54" s="54"/>
+      <c r="V54" s="55"/>
+    </row>
+    <row r="55" spans="2:26" ht="21" customHeight="1">
+      <c r="B55" s="56"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="61"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="54"/>
+      <c r="V55" s="55"/>
+    </row>
+    <row r="56" spans="2:26" ht="21" customHeight="1">
+      <c r="B56" s="56"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="60"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="54"/>
+      <c r="U56" s="54"/>
+      <c r="V56" s="55"/>
+    </row>
+    <row r="57" spans="2:26" ht="21" customHeight="1">
+      <c r="B57" s="56"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="60"/>
+      <c r="R57" s="61"/>
+      <c r="S57" s="53"/>
+      <c r="T57" s="54"/>
+      <c r="U57" s="54"/>
+      <c r="V57" s="55"/>
+    </row>
+    <row r="58" spans="2:26" ht="21" customHeight="1">
+      <c r="B58" s="41"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="50"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="53"/>
+      <c r="T58" s="54"/>
+      <c r="U58" s="54"/>
+      <c r="V58" s="55"/>
+    </row>
+    <row r="59" spans="2:26" ht="21" customHeight="1">
+      <c r="B59" s="41"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="50"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="53"/>
+      <c r="T59" s="54"/>
+      <c r="U59" s="54"/>
+      <c r="V59" s="55"/>
+    </row>
+    <row r="60" spans="2:26" ht="21" customHeight="1">
+      <c r="B60" s="56"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="61"/>
+      <c r="S60" s="53"/>
+      <c r="T60" s="54"/>
+      <c r="U60" s="54"/>
+      <c r="V60" s="55"/>
+      <c r="Z60" s="30"/>
+    </row>
+    <row r="61" spans="2:26" ht="21" customHeight="1">
+      <c r="B61" s="56"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="60"/>
+      <c r="R61" s="61"/>
+      <c r="S61" s="53"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
+      <c r="V61" s="55"/>
+    </row>
+    <row r="62" spans="2:26" ht="21" customHeight="1">
+      <c r="B62" s="56"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="59"/>
+      <c r="Q62" s="60"/>
+      <c r="R62" s="61"/>
+      <c r="S62" s="53"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="54"/>
+      <c r="V62" s="55"/>
+    </row>
+    <row r="63" spans="2:26" ht="21" customHeight="1">
+      <c r="B63" s="56"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="59"/>
+      <c r="Q63" s="60"/>
+      <c r="R63" s="61"/>
+      <c r="S63" s="53"/>
+      <c r="T63" s="54"/>
+      <c r="U63" s="54"/>
+      <c r="V63" s="55"/>
+    </row>
+    <row r="64" spans="2:26" ht="21" customHeight="1">
+      <c r="B64" s="56"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="59"/>
+      <c r="Q64" s="60"/>
+      <c r="R64" s="61"/>
+      <c r="S64" s="53"/>
+      <c r="T64" s="54"/>
+      <c r="U64" s="54"/>
+      <c r="V64" s="55"/>
+    </row>
+    <row r="65" spans="2:22" ht="21" customHeight="1">
+      <c r="B65" s="41"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="50"/>
+      <c r="Q65" s="51"/>
+      <c r="R65" s="52"/>
+      <c r="S65" s="53"/>
+      <c r="T65" s="54"/>
+      <c r="U65" s="54"/>
+      <c r="V65" s="55"/>
+    </row>
+    <row r="66" spans="2:22" ht="21" customHeight="1">
+      <c r="B66" s="41"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="50"/>
+      <c r="Q66" s="51"/>
+      <c r="R66" s="52"/>
+      <c r="S66" s="53"/>
+      <c r="T66" s="54"/>
+      <c r="U66" s="54"/>
+      <c r="V66" s="55"/>
+    </row>
+    <row r="67" spans="2:22" ht="21" customHeight="1">
+      <c r="B67" s="56"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="59"/>
+      <c r="Q67" s="60"/>
+      <c r="R67" s="61"/>
+      <c r="S67" s="53"/>
+      <c r="T67" s="54"/>
+      <c r="U67" s="54"/>
+      <c r="V67" s="55"/>
+    </row>
+    <row r="68" spans="2:22" ht="21" customHeight="1">
+      <c r="B68" s="56"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="59"/>
+      <c r="Q68" s="60"/>
+      <c r="R68" s="61"/>
+      <c r="S68" s="53"/>
+      <c r="T68" s="54"/>
+      <c r="U68" s="54"/>
+      <c r="V68" s="55"/>
+    </row>
+    <row r="69" spans="2:22" ht="21" customHeight="1">
+      <c r="B69" s="56"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="60"/>
+      <c r="R69" s="61"/>
+      <c r="S69" s="53"/>
+      <c r="T69" s="54"/>
+      <c r="U69" s="54"/>
+      <c r="V69" s="55"/>
+    </row>
+    <row r="70" spans="2:22" ht="21" customHeight="1">
+      <c r="B70" s="41"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="50"/>
+      <c r="Q70" s="51"/>
+      <c r="R70" s="52"/>
+      <c r="S70" s="53"/>
+      <c r="T70" s="54"/>
+      <c r="U70" s="54"/>
+      <c r="V70" s="55"/>
+    </row>
+    <row r="71" spans="2:22" ht="21" customHeight="1">
+      <c r="B71" s="56"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="48"/>
+      <c r="L71" s="48"/>
+      <c r="M71" s="48"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="59"/>
+      <c r="Q71" s="60"/>
+      <c r="R71" s="61"/>
+      <c r="S71" s="53"/>
+      <c r="T71" s="54"/>
+      <c r="U71" s="54"/>
+      <c r="V71" s="55"/>
+    </row>
+    <row r="72" spans="2:22" ht="21" customHeight="1">
+      <c r="B72" s="41"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="48"/>
+      <c r="L72" s="48"/>
+      <c r="M72" s="48"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="50"/>
+      <c r="Q72" s="51"/>
+      <c r="R72" s="52"/>
+      <c r="S72" s="53"/>
+      <c r="T72" s="54"/>
+      <c r="U72" s="54"/>
+      <c r="V72" s="55"/>
+    </row>
+    <row r="73" spans="2:22" ht="17.25" customHeight="1"/>
+    <row r="74" spans="2:22" ht="10.15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="133">
+  <mergeCells count="305">
     <mergeCell ref="T33:V33"/>
     <mergeCell ref="O5:S6"/>
     <mergeCell ref="N33:P33"/>
@@ -2327,6 +3246,178 @@
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="X48:X49"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="S44:V44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:N45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="S45:V45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:N46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="S46:V46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:N47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="S47:V47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:N48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="S48:V48"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="S51:V51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:N52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="S52:V52"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:N49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:V49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:N50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="S50:V50"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:N60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:V60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:N61"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="S61:V61"/>
+    <mergeCell ref="S65:V65"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:N62"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="S62:V62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:N63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="S63:V63"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:N68"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="H69:N69"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:N57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:V57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:N58"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="S58:V58"/>
+    <mergeCell ref="X42:X43"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:N55"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="S55:V55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:N56"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="S56:V56"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:N53"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="S53:V53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:N54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="S54:V54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:N51"/>
+    <mergeCell ref="H59:N59"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="S59:V59"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:N66"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="S66:V66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:N67"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:N64"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="S64:V64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:N65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:N72"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="S72:V72"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:N70"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:N71"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="S71:V71"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
